--- a/Trabajo_3/Fit_model_1D2R.xlsx
+++ b/Trabajo_3/Fit_model_1D2R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\GGE\Trabajos_GGE\Trabajo_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D22DAB2-8745-4674-BD5F-A71819B28284}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B709B759-8EF1-4B92-BCD6-9F48994CAF43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1944" yWindow="768" windowWidth="16404" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,9 +35,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>RTC France</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Ipv</t>
+  </si>
+  <si>
+    <t>I0</t>
+  </si>
+  <si>
+    <t>Rs</t>
+  </si>
+  <si>
+    <t>Rsh</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>TNJ</t>
+  </si>
+  <si>
+    <t>ZTJ</t>
+  </si>
+  <si>
+    <t>3G30C</t>
   </si>
 </sst>
 </file>
@@ -401,14 +428,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3F1B07-4810-440F-A128-CEB24D33E330}">
-  <dimension ref="A2:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
@@ -427,6 +474,66 @@
       </c>
       <c r="F2">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0.314</v>
+      </c>
+      <c r="C3">
+        <v>3.3599999999999998E-19</v>
+      </c>
+      <c r="D3">
+        <v>4.38</v>
+      </c>
+      <c r="E3">
+        <v>-13.3</v>
+      </c>
+      <c r="F3">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.254</v>
+      </c>
+      <c r="C4">
+        <v>2.7300000000000001E-19</v>
+      </c>
+      <c r="D4">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="E4">
+        <v>-12.6</v>
+      </c>
+      <c r="F4">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="C5">
+        <v>4.4E-16</v>
+      </c>
+      <c r="D5">
+        <v>5.49</v>
+      </c>
+      <c r="E5">
+        <v>-27.5</v>
+      </c>
+      <c r="F5">
+        <v>5.87</v>
       </c>
     </row>
   </sheetData>

--- a/Trabajo_3/Fit_model_1D2R.xlsx
+++ b/Trabajo_3/Fit_model_1D2R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\GGE\Trabajos_GGE\Trabajo_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B709B759-8EF1-4B92-BCD6-9F48994CAF43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABDBDDE-9E63-4663-8489-749F7E0DB320}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1944" yWindow="768" windowWidth="16404" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,7 +461,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.76600000000000001</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="C2">
         <v>1.0800000000000001E-8</v>
